--- a/Flight Payload/Perovskite Performance/P3_Assembled/X002_PostVibe/9Dec23.xlsx
+++ b/Flight Payload/Perovskite Performance/P3_Assembled/X002_PostVibe/9Dec23.xlsx
@@ -504,7 +504,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E2" t="n">
-        <v>1395.612807161338</v>
+        <v>13.95612807161338</v>
       </c>
       <c r="F2" t="n">
         <v>1.391387927720108</v>
@@ -548,7 +548,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E3" t="n">
-        <v>1468.769930117376</v>
+        <v>14.68769930117376</v>
       </c>
       <c r="F3" t="n">
         <v>1.391387927720108</v>
@@ -592,7 +592,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E4" t="n">
-        <v>1316.828213208682</v>
+        <v>13.16828213208681</v>
       </c>
       <c r="F4" t="n">
         <v>1.391387927720108</v>
@@ -636,7 +636,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E5" t="n">
-        <v>1316.828213208682</v>
+        <v>13.16828213208681</v>
       </c>
       <c r="F5" t="n">
         <v>1.517877739331027</v>
@@ -768,7 +768,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E8" t="n">
-        <v>1266.180974239117</v>
+        <v>12.66180974239117</v>
       </c>
       <c r="F8" t="n">
         <v>1.391387927720108</v>
@@ -812,7 +812,7 @@
         <v>23.98944702965703</v>
       </c>
       <c r="E9" t="n">
-        <v>1316.828213208682</v>
+        <v>13.16828213208681</v>
       </c>
       <c r="F9" t="n">
         <v>1.391387927720108</v>
@@ -944,7 +944,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E12" t="n">
-        <v>1688.241298985489</v>
+        <v>16.8824129898549</v>
       </c>
       <c r="F12" t="n">
         <v>1.517877739331027</v>
@@ -988,7 +988,7 @@
         <v>26.17030585053494</v>
       </c>
       <c r="E13" t="n">
-        <v>1722.006124965199</v>
+        <v>17.22006124965199</v>
       </c>
       <c r="F13" t="n">
         <v>1.517877739331027</v>
